--- a/ML01 クラスタリング/kendata.xlsx
+++ b/ML01 クラスタリング/kendata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1520" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4280" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="総合" sheetId="5" r:id="rId1"/>
@@ -224,7 +224,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -286,24 +287,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -581,31 +588,34 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F2:F48"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="7" width="12.7109375" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H1" t="s">
@@ -619,28 +629,28 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>7507691</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>5172.8999999999996</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>1451.35</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>160228</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>1.03E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>1671</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="8">
         <v>395</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="8">
         <v>92</v>
       </c>
     </row>
@@ -648,28 +658,28 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>1374881</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>5676.19</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>242.22</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>7828</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>397</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
         <v>123</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="8">
         <v>34</v>
       </c>
     </row>
@@ -677,28 +687,28 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>2907262</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>6097.12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>476.83</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>40477</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>1145</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>216</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="8">
         <v>124</v>
       </c>
     </row>
@@ -706,28 +716,28 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>1915401</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>7114.47</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>269.23</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>18476</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>596</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>157</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>82</v>
       </c>
     </row>
@@ -735,28 +745,28 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>1439913</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>2281.14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>631.23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>7651</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
         <v>450</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="8">
         <v>177</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="8">
         <v>58</v>
       </c>
     </row>
@@ -764,28 +774,28 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>1268083</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>15275.01</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>83.02</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>5184</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>1.9E-3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <v>628</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="8">
         <v>137</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="8">
         <v>162</v>
       </c>
     </row>
@@ -793,28 +803,28 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>2022785</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>10621.29</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>190.45</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>36879</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
         <v>664</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="8">
         <v>215</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="8">
         <v>36</v>
       </c>
     </row>
@@ -822,28 +832,28 @@
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>1095959</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>7735.31</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>141.68</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>3802</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <v>652</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="8">
         <v>226</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <v>209</v>
       </c>
     </row>
@@ -851,28 +861,28 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>2329431</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>7282.22</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <v>319.88</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>12367</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>4.3E-3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <v>653</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="8">
         <v>199</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <v>125</v>
       </c>
     </row>
@@ -880,28 +890,28 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>2605731</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>4612.1899999999996</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <v>564.97</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>41855</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
         <v>649</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="8">
         <v>151</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <v>19</v>
       </c>
     </row>
@@ -909,28 +919,28 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>1774538</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <v>7409.44</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="8">
         <v>239.5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>7624</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="8">
         <v>655</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="8">
         <v>187</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="8">
         <v>126</v>
       </c>
     </row>
@@ -938,28 +948,28 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>1966381</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>6362.28</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="8">
         <v>309.07</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>35458</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="8">
         <v>647</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="8">
         <v>186</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="8">
         <v>107</v>
       </c>
     </row>
@@ -967,28 +977,28 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>2838494</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>8479.4699999999993</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="8">
         <v>334.75</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>31882</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>1.18E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="8">
         <v>717</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="8">
         <v>205</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="8">
         <v>63</v>
       </c>
     </row>
@@ -996,28 +1006,28 @@
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>972156</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>1876.73</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="8">
         <v>518.01</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>6858</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="8">
         <v>343</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="8">
         <v>104</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="8">
         <v>29</v>
       </c>
     </row>
@@ -1025,28 +1035,28 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="8">
         <v>720907</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8">
         <v>7103.93</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="8">
         <v>101.48</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>3172</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="8">
         <v>259</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="8">
         <v>91</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="8">
         <v>19</v>
       </c>
     </row>
@@ -1054,28 +1064,28 @@
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="8">
         <v>828388</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="8">
         <v>2440.6799999999998</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="8">
         <v>339.41</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="6">
         <v>3594</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="8">
         <v>255</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="8">
         <v>98</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="8">
         <v>34</v>
       </c>
     </row>
@@ -1083,28 +1093,28 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="8">
         <v>7288081</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>3797.75</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>1919.05</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="6">
         <v>88734</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
         <v>1967</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="8">
         <v>345</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="8">
         <v>73</v>
       </c>
     </row>
@@ -1112,28 +1122,28 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>1807611</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="8">
         <v>5774.41</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="8">
         <v>313.04000000000002</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="6">
         <v>32825</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="8">
         <v>455</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="8">
         <v>149</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="8">
         <v>39</v>
       </c>
     </row>
@@ -1141,28 +1151,28 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="8">
         <v>1113029</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="8">
         <v>9323.15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="8">
         <v>119.38</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="6">
         <v>6158</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>1.4E-3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="8">
         <v>358</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="8">
         <v>114</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="8">
         <v>73</v>
       </c>
     </row>
@@ -1170,28 +1180,28 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>1393904</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <v>6112.34</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="8">
         <v>228.05</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>12292</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="8">
         <v>480</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="8">
         <v>140</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="8">
         <v>37</v>
       </c>
     </row>
@@ -1199,28 +1209,28 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="8">
         <v>829884</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <v>4465.2700000000004</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="8">
         <v>185.85</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6">
         <v>12484</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="8">
         <v>217</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="8">
         <v>74</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1228,28 +1238,28 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="8">
         <v>1413079</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <v>4017.38</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="8">
         <v>351.74</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="6">
         <v>21537</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="8">
         <v>414</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="8">
         <v>85</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="8">
         <v>62</v>
       </c>
     </row>
@@ -1257,28 +1267,28 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="8">
         <v>1637073</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="8">
         <v>9186.99</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="8">
         <v>178.19</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>5490</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="8">
         <v>1074</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="8">
         <v>376</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="8">
         <v>277</v>
       </c>
     </row>
@@ -1286,28 +1296,28 @@
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="8">
         <v>1009705</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="8">
         <v>11637.52</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="8">
         <v>86.76</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6">
         <v>3356</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="8">
         <v>301</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="8">
         <v>110</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="8">
         <v>42</v>
       </c>
     </row>
@@ -1315,28 +1325,28 @@
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="8">
         <v>2285856</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="8">
         <v>12584.18</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="8">
         <v>181.65</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="6">
         <v>11914</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="8">
         <v>514</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="8">
         <v>155</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="8">
         <v>38</v>
       </c>
     </row>
@@ -1344,28 +1354,28 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="8">
         <v>9145572</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="8">
         <v>2415.92</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="8">
         <v>3785.54</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="6">
         <v>125686</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="7">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="8">
         <v>2715</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="8">
         <v>514</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="8">
         <v>41</v>
       </c>
     </row>
@@ -1373,28 +1383,28 @@
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="8">
         <v>1293619</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="8">
         <v>9645.56</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="8">
         <v>134.12</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="6">
         <v>3688</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>1.9E-3</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="8">
         <v>546</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="8">
         <v>193</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="8">
         <v>74</v>
       </c>
     </row>
@@ -1402,28 +1412,28 @@
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="8">
         <v>3686945</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="8">
         <v>7777.43</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="8">
         <v>474.06</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="6">
         <v>61610</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="8">
         <v>1120</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="8">
         <v>245</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="8">
         <v>44</v>
       </c>
     </row>
@@ -1431,28 +1441,28 @@
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="8">
         <v>1150818</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="8">
         <v>4186.09</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="8">
         <v>274.91000000000003</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="6">
         <v>9768</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="8">
         <v>254</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="8">
         <v>68</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1460,28 +1470,28 @@
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="8">
         <v>6240408</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="8">
         <v>5157.6400000000003</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="8">
         <v>1209.93</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="6">
         <v>78927</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>1.83E-2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="8">
         <v>1878</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="8">
         <v>402</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="8">
         <v>145</v>
       </c>
     </row>
@@ -1489,28 +1499,28 @@
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="8">
         <v>8837812</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="8">
         <v>1905.14</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="8">
         <v>4638.93</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="6">
         <v>164704</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="8">
         <v>1549</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="8">
         <v>275</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="8">
         <v>14</v>
       </c>
     </row>
@@ -1518,28 +1528,28 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="8">
         <v>1159634</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="8">
         <v>6340.74</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="8">
         <v>182.89</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="6">
         <v>8841</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="8">
         <v>436</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="8">
         <v>147</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="8">
         <v>48</v>
       </c>
     </row>
@@ -1547,28 +1557,28 @@
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="8">
         <v>1366514</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <v>4132.2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="8">
         <v>330.7</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="6">
         <v>6498</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="8">
         <v>490</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="8">
         <v>192</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="8">
         <v>64</v>
       </c>
     </row>
@@ -1576,28 +1586,28 @@
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="8">
         <v>2087997</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <v>13561.56</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="8">
         <v>153.96</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="6">
         <v>29841</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="8">
         <v>761</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="8">
         <v>197</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="8">
         <v>66</v>
       </c>
     </row>
@@ -1605,28 +1615,28 @@
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="8">
         <v>569579</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8">
         <v>3507.13</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="8">
         <v>162.41</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <v>3596</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="8">
         <v>336</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="8">
         <v>107</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="8">
         <v>46</v>
       </c>
     </row>
@@ -1634,28 +1644,28 @@
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="8">
         <v>689817</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="8">
         <v>6708.24</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="8">
         <v>102.83</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6">
         <v>4779</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="7">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="8">
         <v>350</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="8">
         <v>106</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="8">
         <v>59</v>
       </c>
     </row>
@@ -1663,28 +1673,28 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="8">
         <v>13636222</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="8">
         <v>2191</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="8">
         <v>6223.74</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <v>318829</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="7">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="8">
         <v>4025</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="8">
         <v>535</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="8">
         <v>42</v>
       </c>
     </row>
@@ -1692,28 +1702,28 @@
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="8">
         <v>750210</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8">
         <v>4146.79</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="8">
         <v>180.91</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="6">
         <v>4076</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="7">
         <v>6.6E-3</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="8">
         <v>348</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="8">
         <v>113</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1721,28 +1731,28 @@
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="8">
         <v>1968425</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="8">
         <v>6408.09</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="8">
         <v>307.18</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="6">
         <v>26429</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="8">
         <v>710</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="8">
         <v>179</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="8">
         <v>116</v>
       </c>
     </row>
@@ -1750,28 +1760,28 @@
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="8">
         <v>1356950</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="8">
         <v>3690.94</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="8">
         <v>367.64</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="6">
         <v>9255</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="7">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="8">
         <v>344</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="8">
         <v>93</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="8">
         <v>11</v>
       </c>
     </row>
@@ -1779,28 +1789,28 @@
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="8">
         <v>1061393</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="8">
         <v>4247.6099999999997</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="8">
         <v>249.88</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="6">
         <v>11002</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="7">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="8">
         <v>270</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="8">
         <v>104</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="8">
         <v>16</v>
       </c>
     </row>
@@ -1808,28 +1818,28 @@
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="8">
         <v>782232</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="8">
         <v>4190.49</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="8">
         <v>186.67</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="6">
         <v>10562</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="7">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="8">
         <v>163</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="8">
         <v>45</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1837,28 +1847,28 @@
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="8">
         <v>5106707</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="8">
         <v>4986.3999999999996</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="8">
         <v>1024.1300000000001</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="6">
         <v>40317</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="8">
         <v>1084</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="8">
         <v>299</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="8">
         <v>46</v>
       </c>
     </row>
@@ -1866,28 +1876,28 @@
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="8">
         <v>1900106</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="8">
         <v>13783.74</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="8">
         <v>137.85</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="6">
         <v>9347</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="7">
         <v>3.8E-3</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="8">
         <v>529</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="8">
         <v>133</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="8">
         <v>108</v>
       </c>
     </row>
@@ -1895,28 +1905,28 @@
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="8">
         <v>5520575</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="8">
         <v>8400.93</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="8">
         <v>657.14</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="6">
         <v>79040</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="8">
         <v>1372</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="8">
         <v>395</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1924,28 +1934,28 @@
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="8">
         <v>5352306</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="8">
         <v>78420.77</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="8">
         <v>68.25</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="6">
         <v>18280</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="7">
         <v>1E-3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="8">
         <v>3427</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="8">
         <v>688</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="8">
         <v>1080</v>
       </c>
     </row>
@@ -1953,28 +1963,28 @@
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="8">
         <v>953924</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="8">
         <v>4724.71</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="8">
         <v>201.9</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="6">
         <v>4837</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="7">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="8">
         <v>230</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="8">
         <v>81</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2676,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C48"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
